--- a/Project Plans/CPAM implementation Plan.xlsx
+++ b/Project Plans/CPAM implementation Plan.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mudit Sharma\Documents\GitHub\SaviyntArtifacts\Project Plans\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E508912-A392-48C5-B547-73F6605E0515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="43QPGxQTeoDIUta07usmJlgI3yYSjhSD13/nb8QA4HY="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="187">
   <si>
     <t>Task Mode</t>
   </si>
@@ -150,9 +159,6 @@
     <t xml:space="preserve">             Buffer - Time to wait before Prod, clone prod validation</t>
   </si>
   <si>
-    <t xml:space="preserve">             Cloned Prod signed off by Toppan Merrill, downtime for PROD confirmed by Toppan Merrill</t>
-  </si>
-  <si>
     <t xml:space="preserve">             Upgrade Hyper care</t>
   </si>
   <si>
@@ -570,63 +576,69 @@
     <t xml:space="preserve">            Test of the Integration</t>
   </si>
   <si>
-    <t>Unblocked 6/28 for Linux; windows, DB pending on Remote Powershell - Toppan Merrill</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Milestone - AWS Integration Confirmation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unblocked 6/28 for Linux; windows, DB pending on Remote Powershell </t>
+  </si>
+  <si>
+    <t>Unblocked 6/28 for Linux; windows, DB pending on Remote Powershell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Cloned Prod signed off by , downtime for PROD confirmed by Customer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF363636"/>
       <name val="Quattrocento Sans"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -636,7 +648,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -670,7 +682,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFB1BBCC"/>
@@ -684,94 +702,99 @@
       <bottom style="thin">
         <color rgb="FFB1BBCC"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -961,32 +984,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.86"/>
-    <col customWidth="1" min="2" max="2" width="116.86"/>
-    <col customWidth="1" min="3" max="3" width="10.14"/>
-    <col customWidth="1" min="4" max="4" width="12.14"/>
-    <col customWidth="1" min="5" max="5" width="13.14"/>
-    <col customWidth="1" min="6" max="6" width="18.43"/>
-    <col customWidth="1" min="7" max="7" width="23.57"/>
-    <col customWidth="1" min="8" max="8" width="78.43"/>
-    <col customWidth="1" min="9" max="9" width="19.0"/>
-    <col customWidth="1" min="10" max="26" width="112.57"/>
+    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="116.81640625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="4" max="4" width="12.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col min="8" max="8" width="78.453125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="26" width="112.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1057,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" ht="14.25" customHeight="1">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1046,10 +1071,10 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1065,10 +1090,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1084,10 +1109,10 @@
       <c r="G4" s="6"/>
       <c r="H4" s="4"/>
       <c r="I4" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1103,10 +1128,10 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -1122,10 +1147,10 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1141,10 +1166,10 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1160,10 +1185,10 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1179,10 +1204,10 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1198,10 +1223,10 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1217,10 +1242,10 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1236,10 +1261,10 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1255,10 +1280,10 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1274,10 +1299,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="4"/>
       <c r="I14" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1293,10 +1318,10 @@
       <c r="G15" s="6"/>
       <c r="H15" s="4"/>
       <c r="I15" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -1312,10 +1337,10 @@
       <c r="G16" s="6"/>
       <c r="H16" s="4"/>
       <c r="I16" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1331,10 +1356,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="4"/>
       <c r="I17" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -1350,10 +1375,10 @@
       <c r="G18" s="6"/>
       <c r="H18" s="4"/>
       <c r="I18" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -1369,10 +1394,10 @@
       <c r="G19" s="6"/>
       <c r="H19" s="4"/>
       <c r="I19" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>13</v>
       </c>
@@ -1388,10 +1413,10 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -1407,10 +1432,10 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -1428,10 +1453,10 @@
       <c r="G22" s="6"/>
       <c r="H22" s="4"/>
       <c r="I22" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -1444,15 +1469,15 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="4"/>
       <c r="I23" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -1468,10 +1493,10 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>13</v>
       </c>
@@ -1487,10 +1512,10 @@
       <c r="G25" s="6"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -1506,15 +1531,15 @@
       <c r="G26" s="6"/>
       <c r="H26" s="4"/>
       <c r="I26" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>21</v>
@@ -1522,33 +1547,33 @@
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="4"/>
       <c r="I27" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1568,12 +1593,12 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
@@ -1582,15 +1607,15 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>16</v>
@@ -1601,15 +1626,15 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>16</v>
@@ -1620,18 +1645,18 @@
       <c r="G31" s="6"/>
       <c r="H31" s="4"/>
       <c r="I31" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -1639,18 +1664,18 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1658,60 +1683,60 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="4"/>
       <c r="I34" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="4"/>
       <c r="I35" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1719,123 +1744,123 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="4"/>
       <c r="I37" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="4"/>
       <c r="I38" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="4"/>
       <c r="I39" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="4"/>
       <c r="I40" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="4"/>
       <c r="I41" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1843,60 +1868,60 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
       <c r="F43" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="4"/>
       <c r="I43" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="4"/>
       <c r="I44" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -1904,39 +1929,39 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="4"/>
       <c r="I46" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -1944,102 +1969,102 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="4"/>
       <c r="I48" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="4"/>
       <c r="I49" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="4"/>
       <c r="I51" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2047,102 +2072,102 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
       <c r="F53" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="4"/>
       <c r="I53" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="4"/>
       <c r="I54" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="4"/>
       <c r="I55" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
       <c r="F56" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="4"/>
       <c r="I56" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2150,123 +2175,123 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="4"/>
       <c r="I58" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
       <c r="F59" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="4"/>
       <c r="I59" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="4"/>
       <c r="I60" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="4"/>
       <c r="I61" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="4"/>
       <c r="I62" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -2274,60 +2299,60 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="4"/>
       <c r="I64" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="4"/>
       <c r="I65" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2335,165 +2360,165 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
       <c r="F67" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="4"/>
       <c r="I67" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="4"/>
       <c r="I68" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="4"/>
       <c r="I69" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="4"/>
       <c r="I70" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="4"/>
       <c r="I71" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="4"/>
       <c r="I72" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="4"/>
       <c r="I73" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -2501,15 +2526,15 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>16</v>
@@ -2517,20 +2542,20 @@
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="4"/>
       <c r="I75" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>16</v>
@@ -2538,23 +2563,23 @@
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="4"/>
       <c r="I76" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2562,15 +2587,15 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>16</v>
@@ -2578,20 +2603,20 @@
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="4"/>
       <c r="I78" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>16</v>
@@ -2599,20 +2624,20 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="4"/>
       <c r="I79" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>16</v>
@@ -2620,20 +2645,20 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6"/>
       <c r="F80" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="4"/>
       <c r="I80" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>16</v>
@@ -2641,20 +2666,20 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="4"/>
       <c r="I81" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>16</v>
@@ -2662,20 +2687,20 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="4"/>
       <c r="I82" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>16</v>
@@ -2683,20 +2708,20 @@
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
       <c r="F83" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="4"/>
       <c r="I83" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>16</v>
@@ -2704,20 +2729,20 @@
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="4"/>
       <c r="I84" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>16</v>
@@ -2725,20 +2750,20 @@
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="4"/>
       <c r="I85" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>16</v>
@@ -2746,20 +2771,20 @@
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="4"/>
       <c r="I86" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>16</v>
@@ -2767,20 +2792,20 @@
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
       <c r="F87" s="6">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="4"/>
       <c r="I87" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>16</v>
@@ -2788,20 +2813,20 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="4"/>
       <c r="I88" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>16</v>
@@ -2809,20 +2834,20 @@
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="4"/>
       <c r="I89" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>16</v>
@@ -2830,20 +2855,20 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="4"/>
       <c r="I90" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>16</v>
@@ -2851,20 +2876,20 @@
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
       <c r="F91" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="4"/>
       <c r="I91" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>16</v>
@@ -2872,20 +2897,20 @@
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="4"/>
       <c r="I92" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>16</v>
@@ -2893,20 +2918,20 @@
       <c r="D93" s="6"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="4"/>
       <c r="I93" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>16</v>
@@ -2914,20 +2939,20 @@
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="4"/>
       <c r="I94" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>16</v>
@@ -2935,20 +2960,20 @@
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="4"/>
       <c r="I95" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>16</v>
@@ -2956,33 +2981,33 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="4"/>
       <c r="I96" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B97" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G97" s="10"/>
       <c r="H97" s="10"/>
       <c r="I97" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -3002,15 +3027,15 @@
       <c r="Y97" s="8"/>
       <c r="Z97" s="8"/>
     </row>
-    <row r="98" ht="14.25" customHeight="1">
+    <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D98" s="13"/>
       <c r="E98" s="13"/>
@@ -3018,144 +3043,144 @@
       <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="4"/>
       <c r="I99" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="4"/>
       <c r="I100" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
       <c r="F101" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="4"/>
       <c r="I101" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="4"/>
       <c r="I102" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="4"/>
       <c r="I103" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="105" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -3163,18 +3188,18 @@
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
       <c r="I105" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
@@ -3182,120 +3207,120 @@
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="107" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
       <c r="I107" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G108" s="6"/>
       <c r="H108" s="4"/>
       <c r="I108" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G109" s="6"/>
       <c r="H109" s="4"/>
       <c r="I109" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6"/>
       <c r="F110" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G110" s="6"/>
       <c r="H110" s="4"/>
       <c r="I110" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
       <c r="F111" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G111" s="6"/>
       <c r="H111" s="4"/>
       <c r="I111" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>34</v>
@@ -3303,65 +3328,65 @@
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
       <c r="I112" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
       <c r="F113" s="6">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="G113" s="6"/>
       <c r="H113" s="4"/>
       <c r="I113" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
       <c r="F114" s="6">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="G114" s="6"/>
       <c r="H114" s="4"/>
       <c r="I114" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
@@ -3369,165 +3394,165 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
       <c r="I115" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
       <c r="F116" s="18">
-        <v>103113.0</v>
+        <v>103113</v>
       </c>
       <c r="G116" s="6"/>
       <c r="H116" s="4"/>
       <c r="I116" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C117" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
       <c r="F117" s="18">
-        <v>103113.0</v>
+        <v>103113</v>
       </c>
       <c r="G117" s="6"/>
       <c r="H117" s="4"/>
       <c r="I117" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
       <c r="F118" s="18">
-        <v>103113.0</v>
+        <v>103113</v>
       </c>
       <c r="G118" s="6"/>
       <c r="H118" s="4"/>
       <c r="I118" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="119" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
       <c r="F119" s="18">
-        <v>103113.0</v>
+        <v>103113</v>
       </c>
       <c r="G119" s="6"/>
       <c r="H119" s="4"/>
       <c r="I119" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="120" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
       <c r="F120" s="6">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="4"/>
       <c r="I120" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
       <c r="F121" s="6">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="G121" s="6"/>
       <c r="H121" s="4"/>
       <c r="I121" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
       <c r="I122" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
@@ -3535,18 +3560,18 @@
       <c r="G123" s="6"/>
       <c r="H123" s="4"/>
       <c r="I123" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="124" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
@@ -3554,18 +3579,18 @@
       <c r="G124" s="6"/>
       <c r="H124" s="4"/>
       <c r="I124" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="125" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
@@ -3573,18 +3598,18 @@
       <c r="G125" s="6"/>
       <c r="H125" s="4"/>
       <c r="I125" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="126" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
@@ -3592,18 +3617,18 @@
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="127" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
@@ -3611,18 +3636,18 @@
       <c r="G127" s="6"/>
       <c r="H127" s="4"/>
       <c r="I127" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="128" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
@@ -3630,18 +3655,18 @@
       <c r="G128" s="6"/>
       <c r="H128" s="4"/>
       <c r="I128" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
@@ -3649,18 +3674,18 @@
       <c r="G129" s="6"/>
       <c r="H129" s="4"/>
       <c r="I129" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="130" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
@@ -3668,18 +3693,18 @@
       <c r="G130" s="6"/>
       <c r="H130" s="4"/>
       <c r="I130" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="131" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
@@ -3687,18 +3712,18 @@
       <c r="G131" s="6"/>
       <c r="H131" s="4"/>
       <c r="I131" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="132" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
@@ -3706,141 +3731,141 @@
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="17">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="133" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
       <c r="I133" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="134" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
       <c r="F134" s="6">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="4"/>
       <c r="I134" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="135" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
       <c r="F135" s="6">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="G135" s="6"/>
       <c r="H135" s="4"/>
       <c r="I135" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="136" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
       <c r="F136" s="6">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="G136" s="6"/>
       <c r="H136" s="4"/>
       <c r="I136" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="137" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
       <c r="F137" s="6">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="138" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
       <c r="F138" s="18">
-        <v>1.33134135136E11</v>
+        <v>133134135136</v>
       </c>
       <c r="G138" s="6"/>
       <c r="H138" s="4"/>
       <c r="I138" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="139" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C139" s="13" t="s">
         <v>36</v>
@@ -3851,15 +3876,15 @@
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="140" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>36</v>
@@ -3870,15 +3895,15 @@
       <c r="G140" s="6"/>
       <c r="H140" s="4"/>
       <c r="I140" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="141" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C141" s="13" t="s">
         <v>36</v>
@@ -3889,15 +3914,15 @@
       <c r="G141" s="6"/>
       <c r="H141" s="4"/>
       <c r="I141" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="142" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C142" s="13" t="s">
         <v>36</v>
@@ -3908,15 +3933,15 @@
       <c r="G142" s="6"/>
       <c r="H142" s="4"/>
       <c r="I142" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C143" s="13" t="s">
         <v>36</v>
@@ -3927,15 +3952,15 @@
       <c r="G143" s="6"/>
       <c r="H143" s="4"/>
       <c r="I143" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="144" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C144" s="13" t="s">
         <v>36</v>
@@ -3946,18 +3971,18 @@
       <c r="G144" s="6"/>
       <c r="H144" s="4"/>
       <c r="I144" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="145" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
@@ -3965,7 +3990,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="4"/>
       <c r="I145" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J145" s="8"/>
       <c r="K145" s="8"/>
@@ -3985,12 +4010,12 @@
       <c r="Y145" s="8"/>
       <c r="Z145" s="8"/>
     </row>
-    <row r="146" ht="14.25" customHeight="1">
+    <row r="146" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C146" s="9" t="s">
         <v>16</v>
@@ -3998,20 +4023,20 @@
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
       <c r="F146" s="9">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="11">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="147" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>16</v>
@@ -4022,15 +4047,15 @@
       <c r="G147" s="6"/>
       <c r="H147" s="4"/>
       <c r="I147" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="148" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>16</v>
@@ -4041,28 +4066,28 @@
       <c r="G148" s="6"/>
       <c r="H148" s="4"/>
       <c r="I148" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="149" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="G149" s="20"/>
       <c r="H149" s="20"/>
       <c r="I149" s="21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J149" s="8"/>
       <c r="K149" s="8"/>
@@ -4082,12 +4107,12 @@
       <c r="Y149" s="8"/>
       <c r="Z149" s="8"/>
     </row>
-    <row r="150" ht="14.25" customHeight="1">
+    <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>36</v>
@@ -4098,7 +4123,7 @@
       <c r="G150" s="6"/>
       <c r="H150" s="4"/>
       <c r="I150" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J150" s="8"/>
       <c r="K150" s="8"/>
@@ -4118,12 +4143,12 @@
       <c r="Y150" s="8"/>
       <c r="Z150" s="8"/>
     </row>
-    <row r="151" ht="14.25" customHeight="1">
+    <row r="151" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>36</v>
@@ -4134,7 +4159,7 @@
       <c r="G151" s="6"/>
       <c r="H151" s="4"/>
       <c r="I151" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J151" s="8"/>
       <c r="K151" s="8"/>
@@ -4154,12 +4179,12 @@
       <c r="Y151" s="8"/>
       <c r="Z151" s="8"/>
     </row>
-    <row r="152" ht="14.25" customHeight="1">
+    <row r="152" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>36</v>
@@ -4170,7 +4195,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="4"/>
       <c r="I152" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J152" s="8"/>
       <c r="K152" s="8"/>
@@ -4190,12 +4215,12 @@
       <c r="Y152" s="8"/>
       <c r="Z152" s="8"/>
     </row>
-    <row r="153" ht="14.25" customHeight="1">
+    <row r="153" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>36</v>
@@ -4206,7 +4231,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="4"/>
       <c r="I153" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J153" s="8"/>
       <c r="K153" s="8"/>
@@ -4226,12 +4251,12 @@
       <c r="Y153" s="8"/>
       <c r="Z153" s="8"/>
     </row>
-    <row r="154" ht="14.25" customHeight="1">
+    <row r="154" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>16</v>
@@ -4239,12 +4264,12 @@
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
       <c r="F154" s="18">
-        <v>1.52151150149E11</v>
+        <v>152151150149</v>
       </c>
       <c r="G154" s="6"/>
       <c r="H154" s="4"/>
       <c r="I154" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J154" s="8"/>
       <c r="K154" s="8"/>
@@ -4264,12 +4289,12 @@
       <c r="Y154" s="8"/>
       <c r="Z154" s="8"/>
     </row>
-    <row r="155" ht="14.25" customHeight="1">
+    <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>21</v>
@@ -4277,20 +4302,20 @@
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="156" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>21</v>
@@ -4301,15 +4326,15 @@
       <c r="G156" s="6"/>
       <c r="H156" s="4"/>
       <c r="I156" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="157" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>21</v>
@@ -4320,15 +4345,15 @@
       <c r="G157" s="6"/>
       <c r="H157" s="4"/>
       <c r="I157" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="158" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>21</v>
@@ -4339,15 +4364,15 @@
       <c r="G158" s="6"/>
       <c r="H158" s="4"/>
       <c r="I158" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="159" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>21</v>
@@ -4358,15 +4383,15 @@
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="160" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>21</v>
@@ -4377,15 +4402,15 @@
       <c r="G160" s="6"/>
       <c r="H160" s="4"/>
       <c r="I160" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="161" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>21</v>
@@ -4396,15 +4421,15 @@
       <c r="G161" s="6"/>
       <c r="H161" s="4"/>
       <c r="I161" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="162" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>21</v>
@@ -4412,20 +4437,20 @@
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
       <c r="I162" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="163" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>21</v>
@@ -4436,15 +4461,15 @@
       <c r="G163" s="6"/>
       <c r="H163" s="4"/>
       <c r="I163" s="7">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="164" ht="14.25" customHeight="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>21</v>
@@ -4452,30 +4477,30 @@
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="6">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I164" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="165" ht="14.25" customHeight="1">
+    <row r="165" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="18">
-        <v>172171.0</v>
+        <v>172171</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6" t="s">
@@ -4485,845 +4510,843 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="166" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="167" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="168" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="169" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="170" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="171" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="172" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="173" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="174" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="175" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="176" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>